--- a/Data/SeenRx/SeenRx_CCF.xlsx
+++ b/Data/SeenRx/SeenRx_CCF.xlsx
@@ -14,129 +14,156 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>FFTR</t>
   </si>
   <si>
-    <t>LIGAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>EMAZID Seen Rx</t>
-  </si>
-  <si>
-    <t>LIPICON Seen Rx</t>
-  </si>
-  <si>
-    <t>AGLIP Seen Rx</t>
-  </si>
-  <si>
-    <t>CIFIBET Seen Rx</t>
-  </si>
-  <si>
-    <t>AMLEVO Seen Rx</t>
-  </si>
-  <si>
-    <t>CARDOBIS Seen Rx</t>
-  </si>
-  <si>
-    <t>RIVAROX Seen Rx</t>
-  </si>
-  <si>
-    <t>Noclog Seen Rx</t>
+    <t>LIGAZID</t>
+  </si>
+  <si>
+    <t>EMAZID</t>
+  </si>
+  <si>
+    <t>LIPICON</t>
+  </si>
+  <si>
+    <t>AGLIP</t>
+  </si>
+  <si>
+    <t>CIFIBET</t>
+  </si>
+  <si>
+    <t>AMLEVO</t>
+  </si>
+  <si>
+    <t>CARDOBIS</t>
+  </si>
+  <si>
+    <t>RIVAROX</t>
+  </si>
+  <si>
+    <t>NOCLOG</t>
+  </si>
+  <si>
+    <t>CCF</t>
+  </si>
+  <si>
+    <t>CCF10</t>
+  </si>
+  <si>
+    <t>CCF11</t>
+  </si>
+  <si>
+    <t>CCF12</t>
+  </si>
+  <si>
+    <t>CCF13</t>
+  </si>
+  <si>
+    <t>CCF14</t>
+  </si>
+  <si>
+    <t>CCF15</t>
+  </si>
+  <si>
+    <t>CCF16</t>
+  </si>
+  <si>
+    <t>CCF17</t>
   </si>
   <si>
     <t>CCF20</t>
   </si>
   <si>
+    <t>CCF21</t>
+  </si>
+  <si>
+    <t>CCF22</t>
+  </si>
+  <si>
+    <t>CCF23</t>
+  </si>
+  <si>
+    <t>CCF24</t>
+  </si>
+  <si>
+    <t>CCF25</t>
+  </si>
+  <si>
+    <t>CCF26</t>
+  </si>
+  <si>
     <t>CCF30</t>
   </si>
   <si>
+    <t>CCF31</t>
+  </si>
+  <si>
+    <t>CCF32</t>
+  </si>
+  <si>
+    <t>CCF33</t>
+  </si>
+  <si>
+    <t>CCF34</t>
+  </si>
+  <si>
+    <t>CCF35</t>
+  </si>
+  <si>
+    <t>CCF36</t>
+  </si>
+  <si>
     <t>CCF40</t>
   </si>
   <si>
-    <t>CCF10</t>
+    <t>CCF41</t>
+  </si>
+  <si>
+    <t>CCF42</t>
+  </si>
+  <si>
+    <t>CCF43</t>
+  </si>
+  <si>
+    <t>CCF44</t>
+  </si>
+  <si>
+    <t>CCF45</t>
+  </si>
+  <si>
+    <t>CCF46</t>
+  </si>
+  <si>
+    <t>CCF47</t>
   </si>
   <si>
     <t>CCF50</t>
   </si>
   <si>
-    <t>CCF14</t>
-  </si>
-  <si>
-    <t>CCF31</t>
-  </si>
-  <si>
-    <t>CCF16</t>
+    <t>CCF51</t>
+  </si>
+  <si>
+    <t>CCF52</t>
+  </si>
+  <si>
+    <t>CCF53</t>
+  </si>
+  <si>
+    <t>CCF54</t>
+  </si>
+  <si>
+    <t>CCF55</t>
+  </si>
+  <si>
+    <t>CCF56</t>
   </si>
   <si>
     <t>CCF57</t>
   </si>
   <si>
-    <t>CCF35</t>
-  </si>
-  <si>
-    <t>CCF46</t>
-  </si>
-  <si>
-    <t>CCF44</t>
-  </si>
-  <si>
-    <t>CCF21</t>
-  </si>
-  <si>
-    <t>CCF42</t>
-  </si>
-  <si>
-    <t>CCF53</t>
-  </si>
-  <si>
-    <t>CCF24</t>
-  </si>
-  <si>
-    <t>CCF32</t>
-  </si>
-  <si>
-    <t>CCF12</t>
-  </si>
-  <si>
-    <t>CCF51</t>
-  </si>
-  <si>
-    <t>CCF47</t>
-  </si>
-  <si>
-    <t>CCF23</t>
-  </si>
-  <si>
-    <t>CCF45</t>
-  </si>
-  <si>
-    <t>CCF34</t>
-  </si>
-  <si>
-    <t>CCF26</t>
-  </si>
-  <si>
-    <t>CCF41</t>
-  </si>
-  <si>
-    <t>CCF11</t>
-  </si>
-  <si>
-    <t>CCF22</t>
-  </si>
-  <si>
-    <t>CCF17</t>
-  </si>
-  <si>
-    <t>CCF54</t>
-  </si>
-  <si>
-    <t>CCF33</t>
-  </si>
-  <si>
-    <t>CCF13</t>
+    <t>CCF58</t>
   </si>
 </sst>
 </file>
@@ -494,7 +521,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,31 +564,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>56</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J2">
-        <v>2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -572,28 +599,28 @@
         <v>10</v>
       </c>
       <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>8</v>
-      </c>
       <c r="E3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -601,13 +628,13 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -616,16 +643,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -633,31 +660,31 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -668,28 +695,28 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D6">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -729,13 +756,13 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -747,13 +774,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -761,31 +788,31 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -793,13 +820,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -811,13 +838,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -825,31 +852,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -857,13 +884,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -875,13 +902,13 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -889,13 +916,13 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -907,13 +934,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -921,10 +948,10 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -939,7 +966,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -953,31 +980,31 @@
         <v>23</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>5</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -988,28 +1015,28 @@
         <v>0</v>
       </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
         <v>3</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1029,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1052,28 +1079,28 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1081,13 +1108,13 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1099,13 +1126,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1113,13 +1140,13 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1128,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1177,25 +1204,25 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1212,10 +1239,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1227,7 +1254,7 @@
         <v>2</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1241,7 +1268,7 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -1259,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1273,31 +1300,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1305,10 +1332,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -1323,13 +1350,13 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1337,10 +1364,10 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1352,7 +1379,7 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -1369,13 +1396,13 @@
         <v>36</v>
       </c>
       <c r="B28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1390,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1401,10 +1428,10 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -1413,19 +1440,19 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -1433,10 +1460,10 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1445,13 +1472,13 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1465,13 +1492,13 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1480,13 +1507,13 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
         <v>2</v>
@@ -1497,10 +1524,10 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -1509,19 +1536,307 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Data/SeenRx/SeenRx_CCF.xlsx
+++ b/Data/SeenRx/SeenRx_CCF.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>FFTR</t>
   </si>
@@ -112,9 +112,6 @@
     <t>CCF35</t>
   </si>
   <si>
-    <t>CCF36</t>
-  </si>
-  <si>
     <t>CCF40</t>
   </si>
   <si>
@@ -157,13 +154,19 @@
     <t>CCF55</t>
   </si>
   <si>
-    <t>CCF56</t>
-  </si>
-  <si>
-    <t>CCF57</t>
-  </si>
-  <si>
-    <t>CCF58</t>
+    <t>CCF60</t>
+  </si>
+  <si>
+    <t>CCF61</t>
+  </si>
+  <si>
+    <t>CCF62</t>
+  </si>
+  <si>
+    <t>CCF63</t>
+  </si>
+  <si>
+    <t>CCF64</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,31 +567,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>29</v>
+        <v>7</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -596,31 +599,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>2</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>17</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="J3">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -631,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -643,16 +646,16 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -660,13 +663,13 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -678,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -692,31 +695,31 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -742,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -756,10 +759,10 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -774,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -788,31 +791,31 @@
         <v>17</v>
       </c>
       <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
         <v>2</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -820,13 +823,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -838,13 +841,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -852,31 +855,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>7</v>
-      </c>
-      <c r="D11">
-        <v>6</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>17</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -890,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -899,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -916,16 +919,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -934,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -948,13 +951,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -966,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -980,31 +983,31 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1027,16 +1030,16 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1056,10 +1059,10 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1068,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1076,10 +1079,10 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1091,16 +1094,16 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1140,7 +1143,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>0</v>
@@ -1155,16 +1158,16 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1204,10 +1207,10 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1222,7 +1225,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1251,10 +1254,10 @@
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1300,31 +1303,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1332,13 +1335,13 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
         <v>0</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1347,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="G26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1364,10 +1367,10 @@
         <v>35</v>
       </c>
       <c r="B27">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1379,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1428,7 +1431,7 @@
         <v>37</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C29">
         <v>0</v>
@@ -1440,13 +1443,13 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1475,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -1492,7 +1495,7 @@
         <v>39</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1507,16 +1510,16 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -1533,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -1548,7 +1551,7 @@
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1556,31 +1559,31 @@
         <v>41</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
         <v>2</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33">
-        <v>1</v>
-      </c>
-      <c r="H33">
-        <v>2</v>
-      </c>
-      <c r="I33">
-        <v>1</v>
-      </c>
-      <c r="J33">
-        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1594,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1612,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -1620,7 +1623,7 @@
         <v>43</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1638,10 +1641,10 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -1696,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -1716,13 +1719,13 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1740,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -1748,13 +1751,13 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1772,7 +1775,7 @@
         <v>0</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -1780,7 +1783,7 @@
         <v>48</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40">
         <v>0</v>
@@ -1795,10 +1798,10 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -1836,6 +1839,38 @@
         <v>0</v>
       </c>
       <c r="J41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>0</v>
       </c>
     </row>

--- a/Data/SeenRx/SeenRx_CCF.xlsx
+++ b/Data/SeenRx/SeenRx_CCF.xlsx
@@ -567,31 +567,31 @@
         <v>10</v>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="H2">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J2">
-        <v>12</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -599,31 +599,31 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -631,7 +631,7 @@
         <v>12</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -646,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -759,7 +759,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -794,10 +794,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -806,16 +806,16 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -823,13 +823,13 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -838,16 +838,16 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -855,31 +855,31 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -887,13 +887,13 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -919,16 +919,16 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -937,13 +937,13 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -951,13 +951,13 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -966,10 +966,10 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -983,13 +983,13 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -998,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1079,28 +1079,28 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1111,25 +1111,25 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1239,10 +1239,10 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -1260,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1271,31 +1271,31 @@
         <v>32</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1303,31 +1303,31 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -1335,10 +1335,10 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -1382,10 +1382,10 @@
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -1402,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -1414,16 +1414,16 @@
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -1446,10 +1446,10 @@
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>38</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -1478,16 +1478,16 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -1501,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1510,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1527,31 +1527,31 @@
         <v>40</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E32">
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1577,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -1591,25 +1591,25 @@
         <v>42</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -1719,19 +1719,19 @@
         <v>46</v>
       </c>
       <c r="B38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G38">
         <v>0</v>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
         <v>1</v>
@@ -1751,19 +1751,19 @@
         <v>47</v>
       </c>
       <c r="B39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E39">
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39">
         <v>1</v>
